--- a/peores.xlsx
+++ b/peores.xlsx
@@ -28,7 +28,7 @@
     <t>Municipalidad de El Carmen</t>
   </si>
   <si>
-    <t>Corporación Municipal de Maipú (CODEDUC)</t>
+    <t>Corporación Municipal de Servicios y Desarrollo de Maipú (CODEDUC)</t>
   </si>
   <si>
     <t>Municipalidad de Vicuña</t>
@@ -40,12 +40,12 @@
     <t>Asociación Municipalidades Provincia de Llanquihue Para Manejo Sustentable de Residuos y Gestión Ambiental</t>
   </si>
   <si>
+    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
+  </si>
+  <si>
     <t>Carabineros de Chile</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades Territorio de Riego Canal LajaDiguillín</t>
-  </si>
-  <si>
     <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
   </si>
   <si>
@@ -64,34 +64,34 @@
     <t>Dirección General de Relaciones Económicas Internacionales (DIRECON)</t>
   </si>
   <si>
-    <t>Dirección Nacional de Fronteras y Límites del Estado (DIFROL)</t>
+    <t>Asociación de Municipalidades Turísticas de Chile (AMTC)</t>
+  </si>
+  <si>
+    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
+  </si>
+  <si>
+    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
+  </si>
+  <si>
+    <t>Asociación de Municipalidades para la Seguridad Ciudadana Concón  Limache</t>
   </si>
   <si>
     <t>Municipalidad de Santa María</t>
   </si>
   <si>
-    <t>Fundación de Comunicación Capacitación y Cultura del Agro (FUCOA)</t>
-  </si>
-  <si>
-    <t>Municipalidad de Pelarco</t>
-  </si>
-  <si>
     <t>Municipalidad de Valdivia</t>
   </si>
   <si>
-    <t>Corporación Municipal de Las Condes</t>
-  </si>
-  <si>
     <t>Asociación de Municipalidades de la Provincia de Arauco</t>
   </si>
   <si>
-    <t>Asociación Regional de Municipalidades de Magallanes y Antártica Chilena (AMUMAG)</t>
-  </si>
-  <si>
     <t>Municipalidad de Vallenar</t>
   </si>
   <si>
-    <t>Asociación de Municipalidades Paisajes de Conservación para la Biodiversidad de la Región de Los Ríos</t>
+    <t>Corporación de Educación y Salud de Las Condes</t>
+  </si>
+  <si>
+    <t>Gendarmería de Chile</t>
   </si>
   <si>
     <t>Hospital Exequiel González</t>
@@ -468,277 +468,277 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>11.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>660</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>15.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>572</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>26.7</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>29.7</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>317</v>
+        <v>692</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>31.2</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>32.1</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>363</v>
+        <v>693</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>33.3</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>683</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>35.5</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>35.8</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>36.4</v>
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>
